--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4681806666666666</v>
+        <v>1.132844</v>
       </c>
       <c r="H2">
-        <v>1.404542</v>
+        <v>3.398531999999999</v>
       </c>
       <c r="I2">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="J2">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>10.577143</v>
+        <v>16.055739</v>
       </c>
       <c r="N2">
-        <v>31.731429</v>
+        <v>48.167217</v>
       </c>
       <c r="O2">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="P2">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="Q2">
-        <v>4.952013861168666</v>
+        <v>18.18864759171599</v>
       </c>
       <c r="R2">
-        <v>44.568124750518</v>
+        <v>163.697828325444</v>
       </c>
       <c r="S2">
-        <v>0.1367295274842543</v>
+        <v>0.2540848946923372</v>
       </c>
       <c r="T2">
-        <v>0.1367295274842543</v>
+        <v>0.2540848946923372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4681806666666666</v>
+        <v>1.132844</v>
       </c>
       <c r="H3">
-        <v>1.404542</v>
+        <v>3.398531999999999</v>
       </c>
       <c r="I3">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="J3">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>48.528635</v>
       </c>
       <c r="O3">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="P3">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="Q3">
-        <v>7.573389562241111</v>
+        <v>18.32512432931333</v>
       </c>
       <c r="R3">
-        <v>68.16050606016999</v>
+        <v>164.92611896382</v>
       </c>
       <c r="S3">
-        <v>0.209108052871046</v>
+        <v>0.2559913958395784</v>
       </c>
       <c r="T3">
-        <v>0.2091080528710461</v>
+        <v>0.2559913958395784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4681806666666666</v>
+        <v>1.132844</v>
       </c>
       <c r="H4">
-        <v>1.404542</v>
+        <v>3.398531999999999</v>
       </c>
       <c r="I4">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="J4">
-        <v>0.4627786514680797</v>
+        <v>0.6473844372037293</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.046344666666666</v>
+        <v>8.676563666666667</v>
       </c>
       <c r="N4">
-        <v>27.139034</v>
+        <v>26.029691</v>
       </c>
       <c r="O4">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="P4">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="Q4">
-        <v>4.235323676936444</v>
+        <v>9.829193090401331</v>
       </c>
       <c r="R4">
-        <v>38.117913092428</v>
+        <v>88.46273781361198</v>
       </c>
       <c r="S4">
-        <v>0.1169410711127794</v>
+        <v>0.1373081466718137</v>
       </c>
       <c r="T4">
-        <v>0.1169410711127794</v>
+        <v>0.1373081466718137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5434923333333334</v>
+        <v>0.6170343333333334</v>
       </c>
       <c r="H5">
-        <v>1.630477</v>
+        <v>1.851103</v>
       </c>
       <c r="I5">
-        <v>0.5372213485319203</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="J5">
-        <v>0.5372213485319202</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>10.577143</v>
+        <v>16.055739</v>
       </c>
       <c r="N5">
-        <v>31.731429</v>
+        <v>48.167217</v>
       </c>
       <c r="O5">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="P5">
-        <v>0.2954534031561419</v>
+        <v>0.3924791516302356</v>
       </c>
       <c r="Q5">
-        <v>5.748596129070333</v>
+        <v>9.906942210039</v>
       </c>
       <c r="R5">
-        <v>51.73736516163299</v>
+        <v>89.16247989035101</v>
       </c>
       <c r="S5">
-        <v>0.1587238756718877</v>
+        <v>0.1383942569378984</v>
       </c>
       <c r="T5">
-        <v>0.1587238756718876</v>
+        <v>0.1383942569378984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5434923333333334</v>
+        <v>0.6170343333333334</v>
       </c>
       <c r="H6">
-        <v>1.630477</v>
+        <v>1.851103</v>
       </c>
       <c r="I6">
-        <v>0.5372213485319203</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="J6">
-        <v>0.5372213485319202</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>48.528635</v>
       </c>
       <c r="O6">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="P6">
-        <v>0.4518532827901404</v>
+        <v>0.3954240805436893</v>
       </c>
       <c r="Q6">
-        <v>8.791647023210556</v>
+        <v>9.981277981600556</v>
       </c>
       <c r="R6">
-        <v>79.12482320889499</v>
+        <v>89.83150183440502</v>
       </c>
       <c r="S6">
-        <v>0.2427452299190943</v>
+        <v>0.1394326847041109</v>
       </c>
       <c r="T6">
-        <v>0.2427452299190943</v>
+        <v>0.1394326847041109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5434923333333334</v>
+        <v>0.6170343333333334</v>
       </c>
       <c r="H7">
-        <v>1.630477</v>
+        <v>1.851103</v>
       </c>
       <c r="I7">
-        <v>0.5372213485319203</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="J7">
-        <v>0.5372213485319202</v>
+        <v>0.3526155627962707</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.046344666666666</v>
+        <v>8.676563666666667</v>
       </c>
       <c r="N7">
-        <v>27.139034</v>
+        <v>26.029691</v>
       </c>
       <c r="O7">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="P7">
-        <v>0.2526933140537176</v>
+        <v>0.2120967678260751</v>
       </c>
       <c r="Q7">
-        <v>4.916618971024223</v>
+        <v>5.353737677685889</v>
       </c>
       <c r="R7">
-        <v>44.24957073921799</v>
+        <v>48.18363909917301</v>
       </c>
       <c r="S7">
-        <v>0.1357522429409382</v>
+        <v>0.07478862115426144</v>
       </c>
       <c r="T7">
-        <v>0.1357522429409382</v>
+        <v>0.07478862115426142</v>
       </c>
     </row>
   </sheetData>
